--- a/ConvertedEqual/Louisiana_Converted.xlsx
+++ b/ConvertedEqual/Louisiana_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="282">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -825,6 +825,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG221"/>
+  <dimension ref="A1:AG233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1638,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1662,7 +1698,7 @@
         <v>0.2</v>
       </c>
       <c r="AG7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -2980,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -3081,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -3182,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -3283,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -3384,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0.3</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -3485,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0.3</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3586,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>0.3</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -3687,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>0.3</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -3788,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>0.3</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -3889,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>0.3</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -3990,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="AG31">
-        <v>0.8307692307615382</v>
+        <v>0.8166666666583331</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -4091,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="AG32">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -4192,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="AG33">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -4293,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="AG34">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -4394,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="AG35">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -4495,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="AG36">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -4596,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="AG37">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -4697,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="AG38">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -4798,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="AG39">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -4899,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="AG40">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -5000,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="AG41">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -5101,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="AG42">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -5202,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="AG43">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -5303,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="AG44">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -5404,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="AG45">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -5505,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="AG46">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -5606,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="AG47">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -5707,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="AG48">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -5808,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="AG49">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -5909,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="AG50">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -6010,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="AG51">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -6111,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="AG52">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -6212,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="AG53">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -6313,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="AG54">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -6414,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="AG55">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="56" spans="1:33">
@@ -6515,7 +6551,7 @@
         <v>1</v>
       </c>
       <c r="AG56">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -6616,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="AG57">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -6717,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="AG58">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -6818,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="AG59">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -6919,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="AG60">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -7020,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="AG61">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -7121,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="AG62">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -7222,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="AG63">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -7323,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="AG64">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -7424,7 +7460,7 @@
         <v>1</v>
       </c>
       <c r="AG65">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="66" spans="1:33">
@@ -7525,7 +7561,7 @@
         <v>1</v>
       </c>
       <c r="AG66">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -7626,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="AG67">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -7727,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="AG68">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -7828,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="AG69">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="70" spans="1:33">
@@ -7929,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="AG70">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="71" spans="1:33">
@@ -8030,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="AG71">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -8131,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="AG72">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="73" spans="1:33">
@@ -8232,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="AG73">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="74" spans="1:33">
@@ -8333,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="AG74">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="75" spans="1:33">
@@ -8434,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="AG75">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="76" spans="1:33">
@@ -8535,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="AG76">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="77" spans="1:33">
@@ -8636,7 +8672,7 @@
         <v>1</v>
       </c>
       <c r="AG77">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="78" spans="1:33">
@@ -8737,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="AG78">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="79" spans="1:33">
@@ -8838,7 +8874,7 @@
         <v>1</v>
       </c>
       <c r="AG79">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="80" spans="1:33">
@@ -8939,7 +8975,7 @@
         <v>1</v>
       </c>
       <c r="AG80">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="81" spans="1:33">
@@ -9040,7 +9076,7 @@
         <v>1</v>
       </c>
       <c r="AG81">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="82" spans="1:33">
@@ -9141,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="AG82">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="83" spans="1:33">
@@ -9242,7 +9278,7 @@
         <v>1</v>
       </c>
       <c r="AG83">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="84" spans="1:33">
@@ -9343,7 +9379,7 @@
         <v>1</v>
       </c>
       <c r="AG84">
-        <v>0.8461538461461535</v>
+        <v>0.8333333333249997</v>
       </c>
     </row>
     <row r="85" spans="1:33">
@@ -9444,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="AG85">
-        <v>0.417948717946154</v>
+        <v>0.3694444444416667</v>
       </c>
     </row>
     <row r="86" spans="1:33">
@@ -9545,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="AG86">
-        <v>0.417948717946154</v>
+        <v>0.3694444444416667</v>
       </c>
     </row>
     <row r="87" spans="1:33">
@@ -9646,7 +9682,7 @@
         <v>1</v>
       </c>
       <c r="AG87">
-        <v>0.417948717946154</v>
+        <v>0.3694444444416667</v>
       </c>
     </row>
     <row r="88" spans="1:33">
@@ -9747,7 +9783,7 @@
         <v>1</v>
       </c>
       <c r="AG88">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="89" spans="1:33">
@@ -9848,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="AG89">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="90" spans="1:33">
@@ -9949,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="AG90">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="91" spans="1:33">
@@ -10050,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="AG91">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="92" spans="1:33">
@@ -10151,7 +10187,7 @@
         <v>1</v>
       </c>
       <c r="AG92">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="93" spans="1:33">
@@ -10252,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="AG93">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="94" spans="1:33">
@@ -10353,7 +10389,7 @@
         <v>1</v>
       </c>
       <c r="AG94">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="95" spans="1:33">
@@ -10454,7 +10490,7 @@
         <v>1</v>
       </c>
       <c r="AG95">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="96" spans="1:33">
@@ -10555,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="AG96">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="97" spans="1:33">
@@ -10656,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="AG97">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="98" spans="1:33">
@@ -10757,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="AG98">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="99" spans="1:33">
@@ -10858,7 +10894,7 @@
         <v>1</v>
       </c>
       <c r="AG99">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="100" spans="1:33">
@@ -10959,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="AG100">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="101" spans="1:33">
@@ -11060,7 +11096,7 @@
         <v>1</v>
       </c>
       <c r="AG101">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="102" spans="1:33">
@@ -11161,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="AG102">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="103" spans="1:33">
@@ -11262,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="AG103">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="104" spans="1:33">
@@ -11363,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="AG104">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="105" spans="1:33">
@@ -11464,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="AG105">
-        <v>0.4025641025615385</v>
+        <v>0.3527777777750001</v>
       </c>
     </row>
     <row r="106" spans="1:33">
@@ -11565,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="AG106">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="107" spans="1:33">
@@ -11666,7 +11702,7 @@
         <v>1</v>
       </c>
       <c r="AG107">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="108" spans="1:33">
@@ -11767,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="AG108">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="109" spans="1:33">
@@ -11868,7 +11904,7 @@
         <v>1</v>
       </c>
       <c r="AG109">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="110" spans="1:33">
@@ -11969,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="AG110">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="111" spans="1:33">
@@ -12070,7 +12106,7 @@
         <v>1</v>
       </c>
       <c r="AG111">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="112" spans="1:33">
@@ -12171,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="AG112">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="113" spans="1:33">
@@ -12272,7 +12308,7 @@
         <v>1</v>
       </c>
       <c r="AG113">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="114" spans="1:33">
@@ -12373,7 +12409,7 @@
         <v>1</v>
       </c>
       <c r="AG114">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="115" spans="1:33">
@@ -12474,7 +12510,7 @@
         <v>1</v>
       </c>
       <c r="AG115">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="116" spans="1:33">
@@ -12575,7 +12611,7 @@
         <v>1</v>
       </c>
       <c r="AG116">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="117" spans="1:33">
@@ -12676,7 +12712,7 @@
         <v>1</v>
       </c>
       <c r="AG117">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="118" spans="1:33">
@@ -12777,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="AG118">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="119" spans="1:33">
@@ -12878,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="AG119">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="120" spans="1:33">
@@ -12979,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="AG120">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="121" spans="1:33">
@@ -13080,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="AG121">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="122" spans="1:33">
@@ -13181,7 +13217,7 @@
         <v>1</v>
       </c>
       <c r="AG122">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="123" spans="1:33">
@@ -13282,7 +13318,7 @@
         <v>1</v>
       </c>
       <c r="AG123">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="124" spans="1:33">
@@ -13383,7 +13419,7 @@
         <v>1</v>
       </c>
       <c r="AG124">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="125" spans="1:33">
@@ -13484,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="AG125">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="126" spans="1:33">
@@ -13585,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="AG126">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="127" spans="1:33">
@@ -13686,7 +13722,7 @@
         <v>1</v>
       </c>
       <c r="AG127">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="128" spans="1:33">
@@ -13787,7 +13823,7 @@
         <v>1</v>
       </c>
       <c r="AG128">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="129" spans="1:33">
@@ -13888,7 +13924,7 @@
         <v>1</v>
       </c>
       <c r="AG129">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="130" spans="1:33">
@@ -13989,7 +14025,7 @@
         <v>1</v>
       </c>
       <c r="AG130">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="131" spans="1:33">
@@ -14090,7 +14126,7 @@
         <v>1</v>
       </c>
       <c r="AG131">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="132" spans="1:33">
@@ -14191,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="AG132">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="133" spans="1:33">
@@ -14292,7 +14328,7 @@
         <v>1</v>
       </c>
       <c r="AG133">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="134" spans="1:33">
@@ -14393,7 +14429,7 @@
         <v>1</v>
       </c>
       <c r="AG134">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="135" spans="1:33">
@@ -14494,7 +14530,7 @@
         <v>1</v>
       </c>
       <c r="AG135">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="136" spans="1:33">
@@ -14595,7 +14631,7 @@
         <v>1</v>
       </c>
       <c r="AG136">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="137" spans="1:33">
@@ -14696,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="AG137">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="138" spans="1:33">
@@ -14797,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="AG138">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="139" spans="1:33">
@@ -14898,7 +14934,7 @@
         <v>1</v>
       </c>
       <c r="AG139">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="140" spans="1:33">
@@ -14999,7 +15035,7 @@
         <v>1</v>
       </c>
       <c r="AG140">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="141" spans="1:33">
@@ -15100,7 +15136,7 @@
         <v>1</v>
       </c>
       <c r="AG141">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="142" spans="1:33">
@@ -15201,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="AG142">
-        <v>0.2692307692307693</v>
+        <v>0.2083333333333334</v>
       </c>
     </row>
     <row r="143" spans="1:33">
@@ -15302,7 +15338,7 @@
         <v>1</v>
       </c>
       <c r="AG143">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="144" spans="1:33">
@@ -15403,7 +15439,7 @@
         <v>1</v>
       </c>
       <c r="AG144">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="145" spans="1:33">
@@ -15504,7 +15540,7 @@
         <v>1</v>
       </c>
       <c r="AG145">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="146" spans="1:33">
@@ -15605,7 +15641,7 @@
         <v>1</v>
       </c>
       <c r="AG146">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="147" spans="1:33">
@@ -15706,7 +15742,7 @@
         <v>1</v>
       </c>
       <c r="AG147">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="148" spans="1:33">
@@ -15807,7 +15843,7 @@
         <v>1</v>
       </c>
       <c r="AG148">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="149" spans="1:33">
@@ -15908,7 +15944,7 @@
         <v>1</v>
       </c>
       <c r="AG149">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:33">
@@ -16009,7 +16045,7 @@
         <v>1</v>
       </c>
       <c r="AG150">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="151" spans="1:33">
@@ -16110,7 +16146,7 @@
         <v>1</v>
       </c>
       <c r="AG151">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:33">
@@ -16211,7 +16247,7 @@
         <v>1</v>
       </c>
       <c r="AG152">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:33">
@@ -16312,7 +16348,7 @@
         <v>1</v>
       </c>
       <c r="AG153">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="154" spans="1:33">
@@ -16413,7 +16449,7 @@
         <v>1</v>
       </c>
       <c r="AG154">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="155" spans="1:33">
@@ -16514,7 +16550,7 @@
         <v>1</v>
       </c>
       <c r="AG155">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="156" spans="1:33">
@@ -16615,7 +16651,7 @@
         <v>1</v>
       </c>
       <c r="AG156">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:33">
@@ -16716,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="AG157">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="158" spans="1:33">
@@ -16817,7 +16853,7 @@
         <v>1</v>
       </c>
       <c r="AG158">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:33">
@@ -16918,7 +16954,7 @@
         <v>1</v>
       </c>
       <c r="AG159">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="160" spans="1:33">
@@ -17019,7 +17055,7 @@
         <v>1</v>
       </c>
       <c r="AG160">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:33">
@@ -17120,7 +17156,7 @@
         <v>1</v>
       </c>
       <c r="AG161">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:33">
@@ -17221,7 +17257,7 @@
         <v>1</v>
       </c>
       <c r="AG162">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="163" spans="1:33">
@@ -17322,7 +17358,7 @@
         <v>1</v>
       </c>
       <c r="AG163">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="164" spans="1:33">
@@ -17423,7 +17459,7 @@
         <v>1</v>
       </c>
       <c r="AG164">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:33">
@@ -17524,7 +17560,7 @@
         <v>1</v>
       </c>
       <c r="AG165">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:33">
@@ -17625,7 +17661,7 @@
         <v>1</v>
       </c>
       <c r="AG166">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="167" spans="1:33">
@@ -17726,7 +17762,7 @@
         <v>1</v>
       </c>
       <c r="AG167">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:33">
@@ -17827,7 +17863,7 @@
         <v>1</v>
       </c>
       <c r="AG168">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:33">
@@ -17928,7 +17964,7 @@
         <v>1</v>
       </c>
       <c r="AG169">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:33">
@@ -18029,7 +18065,7 @@
         <v>1</v>
       </c>
       <c r="AG170">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:33">
@@ -18130,7 +18166,7 @@
         <v>1</v>
       </c>
       <c r="AG171">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:33">
@@ -18231,7 +18267,7 @@
         <v>1</v>
       </c>
       <c r="AG172">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:33">
@@ -18332,7 +18368,7 @@
         <v>1</v>
       </c>
       <c r="AG173">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:33">
@@ -18433,7 +18469,7 @@
         <v>1</v>
       </c>
       <c r="AG174">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:33">
@@ -18534,7 +18570,7 @@
         <v>1</v>
       </c>
       <c r="AG175">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:33">
@@ -18635,7 +18671,7 @@
         <v>1</v>
       </c>
       <c r="AG176">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:33">
@@ -18736,7 +18772,7 @@
         <v>1</v>
       </c>
       <c r="AG177">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:33">
@@ -18837,7 +18873,7 @@
         <v>1</v>
       </c>
       <c r="AG178">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:33">
@@ -18938,7 +18974,7 @@
         <v>1</v>
       </c>
       <c r="AG179">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="180" spans="1:33">
@@ -19039,7 +19075,7 @@
         <v>1</v>
       </c>
       <c r="AG180">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:33">
@@ -19140,7 +19176,7 @@
         <v>1</v>
       </c>
       <c r="AG181">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:33">
@@ -19241,7 +19277,7 @@
         <v>1</v>
       </c>
       <c r="AG182">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="183" spans="1:33">
@@ -19342,7 +19378,7 @@
         <v>1</v>
       </c>
       <c r="AG183">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:33">
@@ -19443,7 +19479,7 @@
         <v>1</v>
       </c>
       <c r="AG184">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="185" spans="1:33">
@@ -19544,7 +19580,7 @@
         <v>1</v>
       </c>
       <c r="AG185">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="186" spans="1:33">
@@ -19645,7 +19681,7 @@
         <v>1</v>
       </c>
       <c r="AG186">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="187" spans="1:33">
@@ -19746,7 +19782,7 @@
         <v>1</v>
       </c>
       <c r="AG187">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="188" spans="1:33">
@@ -19847,7 +19883,7 @@
         <v>1</v>
       </c>
       <c r="AG188">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="189" spans="1:33">
@@ -19948,7 +19984,7 @@
         <v>1</v>
       </c>
       <c r="AG189">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="190" spans="1:33">
@@ -20049,7 +20085,7 @@
         <v>1</v>
       </c>
       <c r="AG190">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="191" spans="1:33">
@@ -20150,7 +20186,7 @@
         <v>1</v>
       </c>
       <c r="AG191">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:33">
@@ -20251,7 +20287,7 @@
         <v>1</v>
       </c>
       <c r="AG192">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="193" spans="1:33">
@@ -20352,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AG193">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:33">
@@ -20453,7 +20489,7 @@
         <v>1</v>
       </c>
       <c r="AG194">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:33">
@@ -20554,7 +20590,7 @@
         <v>1</v>
       </c>
       <c r="AG195">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:33">
@@ -20655,7 +20691,7 @@
         <v>1</v>
       </c>
       <c r="AG196">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:33">
@@ -20756,7 +20792,7 @@
         <v>1</v>
       </c>
       <c r="AG197">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:33">
@@ -20857,7 +20893,7 @@
         <v>1</v>
       </c>
       <c r="AG198">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:33">
@@ -20958,7 +20994,7 @@
         <v>1</v>
       </c>
       <c r="AG199">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="200" spans="1:33">
@@ -21059,7 +21095,7 @@
         <v>1</v>
       </c>
       <c r="AG200">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:33">
@@ -21160,7 +21196,7 @@
         <v>1</v>
       </c>
       <c r="AG201">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="202" spans="1:33">
@@ -21261,7 +21297,7 @@
         <v>1</v>
       </c>
       <c r="AG202">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="203" spans="1:33">
@@ -21362,7 +21398,7 @@
         <v>1</v>
       </c>
       <c r="AG203">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:33">
@@ -21463,7 +21499,7 @@
         <v>1</v>
       </c>
       <c r="AG204">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:33">
@@ -21564,7 +21600,7 @@
         <v>1</v>
       </c>
       <c r="AG205">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:33">
@@ -21665,7 +21701,7 @@
         <v>1</v>
       </c>
       <c r="AG206">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:33">
@@ -21766,7 +21802,7 @@
         <v>1</v>
       </c>
       <c r="AG207">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="208" spans="1:33">
@@ -21867,7 +21903,7 @@
         <v>1</v>
       </c>
       <c r="AG208">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:33">
@@ -21968,7 +22004,7 @@
         <v>1</v>
       </c>
       <c r="AG209">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="210" spans="1:33">
@@ -22069,7 +22105,7 @@
         <v>1</v>
       </c>
       <c r="AG210">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="211" spans="1:33">
@@ -22170,7 +22206,7 @@
         <v>1</v>
       </c>
       <c r="AG211">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="212" spans="1:33">
@@ -22271,7 +22307,7 @@
         <v>1</v>
       </c>
       <c r="AG212">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="213" spans="1:33">
@@ -22372,7 +22408,7 @@
         <v>1</v>
       </c>
       <c r="AG213">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="214" spans="1:33">
@@ -22473,7 +22509,7 @@
         <v>1</v>
       </c>
       <c r="AG214">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="215" spans="1:33">
@@ -22574,7 +22610,7 @@
         <v>1</v>
       </c>
       <c r="AG215">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:33">
@@ -22675,7 +22711,7 @@
         <v>1</v>
       </c>
       <c r="AG216">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:33">
@@ -22776,7 +22812,7 @@
         <v>1</v>
       </c>
       <c r="AG217">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:33">
@@ -22877,7 +22913,7 @@
         <v>1</v>
       </c>
       <c r="AG218">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:33">
@@ -22978,7 +23014,7 @@
         <v>1</v>
       </c>
       <c r="AG219">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="220" spans="1:33">
@@ -23079,7 +23115,7 @@
         <v>1</v>
       </c>
       <c r="AG220">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="221" spans="1:33">
@@ -23180,7 +23216,1219 @@
         <v>1</v>
       </c>
       <c r="AG221">
-        <v>0.3461538461538462</v>
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:33">
+      <c r="A222" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>1</v>
+      </c>
+      <c r="Z222">
+        <v>1</v>
+      </c>
+      <c r="AA222">
+        <v>1</v>
+      </c>
+      <c r="AB222">
+        <v>1</v>
+      </c>
+      <c r="AC222">
+        <v>1</v>
+      </c>
+      <c r="AD222">
+        <v>1</v>
+      </c>
+      <c r="AE222">
+        <v>1</v>
+      </c>
+      <c r="AF222">
+        <v>1</v>
+      </c>
+      <c r="AG222">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:33">
+      <c r="A223" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>1</v>
+      </c>
+      <c r="Z223">
+        <v>1</v>
+      </c>
+      <c r="AA223">
+        <v>1</v>
+      </c>
+      <c r="AB223">
+        <v>1</v>
+      </c>
+      <c r="AC223">
+        <v>1</v>
+      </c>
+      <c r="AD223">
+        <v>1</v>
+      </c>
+      <c r="AE223">
+        <v>1</v>
+      </c>
+      <c r="AF223">
+        <v>1</v>
+      </c>
+      <c r="AG223">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:33">
+      <c r="A224" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>1</v>
+      </c>
+      <c r="Z224">
+        <v>1</v>
+      </c>
+      <c r="AA224">
+        <v>1</v>
+      </c>
+      <c r="AB224">
+        <v>1</v>
+      </c>
+      <c r="AC224">
+        <v>1</v>
+      </c>
+      <c r="AD224">
+        <v>1</v>
+      </c>
+      <c r="AE224">
+        <v>1</v>
+      </c>
+      <c r="AF224">
+        <v>1</v>
+      </c>
+      <c r="AG224">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:33">
+      <c r="A225" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>1</v>
+      </c>
+      <c r="Z225">
+        <v>1</v>
+      </c>
+      <c r="AA225">
+        <v>1</v>
+      </c>
+      <c r="AB225">
+        <v>1</v>
+      </c>
+      <c r="AC225">
+        <v>1</v>
+      </c>
+      <c r="AD225">
+        <v>1</v>
+      </c>
+      <c r="AE225">
+        <v>1</v>
+      </c>
+      <c r="AF225">
+        <v>1</v>
+      </c>
+      <c r="AG225">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:33">
+      <c r="A226" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>1</v>
+      </c>
+      <c r="Z226">
+        <v>1</v>
+      </c>
+      <c r="AA226">
+        <v>1</v>
+      </c>
+      <c r="AB226">
+        <v>1</v>
+      </c>
+      <c r="AC226">
+        <v>1</v>
+      </c>
+      <c r="AD226">
+        <v>1</v>
+      </c>
+      <c r="AE226">
+        <v>1</v>
+      </c>
+      <c r="AF226">
+        <v>1</v>
+      </c>
+      <c r="AG226">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:33">
+      <c r="A227" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>1</v>
+      </c>
+      <c r="Z227">
+        <v>1</v>
+      </c>
+      <c r="AA227">
+        <v>1</v>
+      </c>
+      <c r="AB227">
+        <v>1</v>
+      </c>
+      <c r="AC227">
+        <v>1</v>
+      </c>
+      <c r="AD227">
+        <v>1</v>
+      </c>
+      <c r="AE227">
+        <v>1</v>
+      </c>
+      <c r="AF227">
+        <v>1</v>
+      </c>
+      <c r="AG227">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:33">
+      <c r="A228" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>1</v>
+      </c>
+      <c r="Z228">
+        <v>1</v>
+      </c>
+      <c r="AA228">
+        <v>1</v>
+      </c>
+      <c r="AB228">
+        <v>1</v>
+      </c>
+      <c r="AC228">
+        <v>1</v>
+      </c>
+      <c r="AD228">
+        <v>1</v>
+      </c>
+      <c r="AE228">
+        <v>1</v>
+      </c>
+      <c r="AF228">
+        <v>1</v>
+      </c>
+      <c r="AG228">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:33">
+      <c r="A229" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>1</v>
+      </c>
+      <c r="Z229">
+        <v>1</v>
+      </c>
+      <c r="AA229">
+        <v>1</v>
+      </c>
+      <c r="AB229">
+        <v>1</v>
+      </c>
+      <c r="AC229">
+        <v>1</v>
+      </c>
+      <c r="AD229">
+        <v>1</v>
+      </c>
+      <c r="AE229">
+        <v>1</v>
+      </c>
+      <c r="AF229">
+        <v>1</v>
+      </c>
+      <c r="AG229">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:33">
+      <c r="A230" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>1</v>
+      </c>
+      <c r="Z230">
+        <v>1</v>
+      </c>
+      <c r="AA230">
+        <v>1</v>
+      </c>
+      <c r="AB230">
+        <v>1</v>
+      </c>
+      <c r="AC230">
+        <v>1</v>
+      </c>
+      <c r="AD230">
+        <v>1</v>
+      </c>
+      <c r="AE230">
+        <v>1</v>
+      </c>
+      <c r="AF230">
+        <v>1</v>
+      </c>
+      <c r="AG230">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:33">
+      <c r="A231" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>1</v>
+      </c>
+      <c r="Z231">
+        <v>1</v>
+      </c>
+      <c r="AA231">
+        <v>1</v>
+      </c>
+      <c r="AB231">
+        <v>1</v>
+      </c>
+      <c r="AC231">
+        <v>1</v>
+      </c>
+      <c r="AD231">
+        <v>1</v>
+      </c>
+      <c r="AE231">
+        <v>1</v>
+      </c>
+      <c r="AF231">
+        <v>1</v>
+      </c>
+      <c r="AG231">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:33">
+      <c r="A232" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>1</v>
+      </c>
+      <c r="Z232">
+        <v>1</v>
+      </c>
+      <c r="AA232">
+        <v>1</v>
+      </c>
+      <c r="AB232">
+        <v>1</v>
+      </c>
+      <c r="AC232">
+        <v>1</v>
+      </c>
+      <c r="AD232">
+        <v>1</v>
+      </c>
+      <c r="AE232">
+        <v>1</v>
+      </c>
+      <c r="AF232">
+        <v>1</v>
+      </c>
+      <c r="AG232">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:33">
+      <c r="A233" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>1</v>
+      </c>
+      <c r="Z233">
+        <v>1</v>
+      </c>
+      <c r="AA233">
+        <v>1</v>
+      </c>
+      <c r="AB233">
+        <v>1</v>
+      </c>
+      <c r="AC233">
+        <v>1</v>
+      </c>
+      <c r="AD233">
+        <v>1</v>
+      </c>
+      <c r="AE233">
+        <v>1</v>
+      </c>
+      <c r="AF233">
+        <v>1</v>
+      </c>
+      <c r="AG233">
+        <v>0.2916666666666667</v>
       </c>
     </row>
   </sheetData>
